--- a/ogserver/src/data/templates/jobcard-template.xlsx
+++ b/ogserver/src/data/templates/jobcard-template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\game_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="732" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JOB Card" sheetId="1" r:id="rId1"/>
@@ -14,8 +19,8 @@
     <sheet name="Module Summary" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -265,11 +270,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,7 +728,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -746,14 +751,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -796,7 +801,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -819,14 +824,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -869,7 +874,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -892,14 +897,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -942,7 +947,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -965,14 +970,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1015,7 +1020,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1038,14 +1043,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1317,21 +1322,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
@@ -1345,7 +1350,7 @@
     <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1360,7 +1365,7 @@
       </c>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1375,7 +1380,7 @@
       </c>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>57</v>
       </c>
@@ -1390,7 +1395,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="62"/>
@@ -1403,7 +1408,7 @@
       <c r="H4" s="31"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1">
+    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -1416,7 +1421,7 @@
       <c r="H5" s="31"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1">
+    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="35" t="s">
         <v>19</v>
@@ -1435,7 +1440,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" s="13" customFormat="1">
+    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="37" t="s">
         <v>21</v>
@@ -1454,7 +1459,7 @@
       </c>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1">
+    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="37" t="s">
         <v>23</v>
@@ -1473,7 +1478,7 @@
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1">
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="37" t="s">
         <v>25</v>
@@ -1488,7 +1493,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1">
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
@@ -1505,7 +1510,7 @@
       <c r="H10" s="31"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" s="13" customFormat="1">
+    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="37" t="s">
         <v>29</v>
@@ -1520,7 +1525,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="37" t="s">
         <v>31</v>
@@ -1535,7 +1540,7 @@
       <c r="H12" s="31"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" s="13" customFormat="1">
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="19" t="s">
         <v>33</v>
@@ -1552,7 +1557,7 @@
       <c r="H13" s="31"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1">
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -1569,7 +1574,7 @@
       <c r="H14" s="31"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" s="13" customFormat="1">
+    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="19" t="s">
         <v>38</v>
@@ -1588,7 +1593,7 @@
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1">
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="19" t="s">
         <v>41</v>
@@ -1607,7 +1612,7 @@
       </c>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:11" s="13" customFormat="1">
+    <row r="17" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="19" t="s">
         <v>44</v>
@@ -1626,7 +1631,7 @@
       </c>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1">
+    <row r="18" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="19" t="s">
         <v>47</v>
@@ -1645,7 +1650,7 @@
       </c>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:11" s="13" customFormat="1">
+    <row r="19" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="18"/>
       <c r="C19" s="29"/>
@@ -1656,7 +1661,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:11" s="13" customFormat="1" ht="16.5" thickBot="1">
+    <row r="20" spans="1:11" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
         <v>56</v>
       </c>
@@ -1669,7 +1674,7 @@
       <c r="H20" s="65"/>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>66</v>
       </c>
@@ -1684,7 +1689,7 @@
       <c r="J21" s="40"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1">
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -1697,7 +1702,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -1711,6 +1716,7 @@
       <c r="K23" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CbfvByzqmPd3Zd/Itq6Pv/PxugPI8O2ZWvr1VXtjmVHHwsQWDYey6Ov5bQIx0slrIDGgyQ/4DtOw5JJnvdLBDQ==" saltValue="ovbruB6Qn+Dj0yM5ArQ5qQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="3">
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1723,15 +1729,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
@@ -1742,7 +1748,7 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1752,14 +1758,14 @@
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1">
+    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43" t="s">
@@ -1771,7 +1777,7 @@
       </c>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="35" t="s">
         <v>19</v>
@@ -1785,7 +1791,7 @@
       </c>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="37" t="s">
         <v>21</v>
@@ -1799,7 +1805,7 @@
       </c>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1">
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="37" t="s">
         <v>23</v>
@@ -1813,7 +1819,7 @@
       </c>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1">
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="37" t="s">
         <v>25</v>
@@ -1825,7 +1831,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1">
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="19" t="s">
         <v>26</v>
@@ -1837,7 +1843,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
@@ -1845,7 +1851,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -1853,14 +1859,14 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="40"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +1887,7 @@
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -1889,13 +1895,13 @@
       <c r="E13" s="8"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1924,6 +1930,7 @@
       <c r="F17" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="XsyN0L/57728b3+AadDTynUd0qr7QtwGdMjlsrw44BSRoRTSZOGZPWQ8+hIYLxQ8lMugeXOAFkNaeIIb5yRd0Q==" saltValue="SG3JK93YtS7YWZEzn+cXtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="13" orientation="portrait" r:id="rId1"/>
@@ -1932,7 +1939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1942,7 +1949,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="13" bestFit="1" customWidth="1"/>
@@ -1954,7 +1961,7 @@
     <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1963,7 +1970,7 @@
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1972,7 +1979,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43" t="s">
@@ -1984,7 +1991,7 @@
       </c>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="35" t="s">
         <v>19</v>
@@ -1998,7 +2005,7 @@
       </c>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="37" t="s">
         <v>21</v>
@@ -2012,7 +2019,7 @@
       </c>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="37" t="s">
         <v>23</v>
@@ -2026,7 +2033,7 @@
       </c>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="37" t="s">
         <v>25</v>
@@ -2038,7 +2045,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="19" t="s">
         <v>26</v>
@@ -2050,7 +2057,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
@@ -2058,7 +2065,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2066,13 +2073,13 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -2100,12 +2107,12 @@
       <c r="E13" s="8"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2133,12 +2140,12 @@
       <c r="E17" s="15"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -2166,12 +2173,12 @@
       <c r="E21" s="15"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>6</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -2200,6 +2207,7 @@
       <c r="F25" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="wc2My7fCkEA0Pj0hPnHrn+CT3XR3b0KONy5n/mMz8lpxQHwj9YxAYjWyl1sVs7vyY28hnEhGErJcvQB/ASqN/g==" saltValue="QD0O39m+Lu/exPgwhaY5UA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="13" orientation="portrait" r:id="rId1"/>
@@ -2208,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2218,7 +2226,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="13" bestFit="1" customWidth="1"/>
@@ -2234,7 +2242,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2243,7 +2251,7 @@
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2252,7 +2260,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43" t="s">
@@ -2264,7 +2272,7 @@
       </c>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="35" t="s">
         <v>19</v>
@@ -2278,7 +2286,7 @@
       </c>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="37" t="s">
         <v>21</v>
@@ -2292,7 +2300,7 @@
       </c>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="37" t="s">
         <v>23</v>
@@ -2306,7 +2314,7 @@
       </c>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="37" t="s">
         <v>25</v>
@@ -2318,7 +2326,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="19" t="s">
         <v>26</v>
@@ -2330,7 +2338,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
@@ -2338,7 +2346,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2346,13 +2354,13 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>0</v>
       </c>
@@ -2381,12 +2389,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>0</v>
       </c>
@@ -2422,6 +2430,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mrZtdQpTa37crltd3Kjue15jCzaJ2hMY+RO1YOMXSM2IwILxsHD2ivegXJlNK/rDYZDhrFyn+B/LUFtVa3ZwQQ==" saltValue="+gUuGhssUhbDZ7AIzSgVSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="13" orientation="portrait" r:id="rId1"/>
@@ -2430,17 +2439,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="13" customWidth="1"/>
@@ -2455,7 +2464,7 @@
     <col min="11" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2464,7 +2473,7 @@
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2473,7 +2482,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43" t="s">
@@ -2485,7 +2494,7 @@
       </c>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="35" t="s">
         <v>19</v>
@@ -2499,7 +2508,7 @@
       </c>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="37" t="s">
         <v>21</v>
@@ -2513,7 +2522,7 @@
       </c>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="37" t="s">
         <v>23</v>
@@ -2527,7 +2536,7 @@
       </c>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="37" t="s">
         <v>25</v>
@@ -2539,7 +2548,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="19" t="s">
         <v>26</v>
@@ -2551,7 +2560,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
@@ -2559,7 +2568,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2567,13 +2576,13 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>0</v>
       </c>
@@ -2606,6 +2615,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="JttEogt3+C0p5L16u4AlsoCToikLQoUszyg+IeVIvmnAQ0q4QDmkVfVhmd5b5GOtrbThrs3cXvwaiNSR4u/SdQ==" saltValue="JPn2XSODADhfKJnV1Qdp6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="13" orientation="portrait" r:id="rId1"/>
